--- a/data/trans_orig/Q5417-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5417-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4226</v>
+        <v>4700</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002865526581113003</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01444406234755614</v>
+        <v>0.01606287334667049</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4493</v>
+        <v>5149</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002614239136461955</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01310154798785097</v>
+        <v>0.01501447126114351</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5341</v>
+        <v>5321</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00272992830695122</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008403884779095604</v>
+        <v>0.008372955363873752</v>
       </c>
     </row>
     <row r="5">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6403</v>
+        <v>6357</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.005315977529462061</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01867214848034148</v>
+        <v>0.01853722869729908</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6925</v>
+        <v>5811</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.00286857697756794</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0108960158851738</v>
+        <v>0.009144450456624337</v>
       </c>
     </row>
     <row r="6">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6635</v>
+        <v>6089</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.006375756835353392</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02267786638608597</v>
+        <v>0.02081108387230613</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -899,19 +899,19 @@
         <v>8845</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4134</v>
+        <v>3930</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16028</v>
+        <v>15573</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02579226298973575</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01205591488273218</v>
+        <v>0.01145886622146891</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04673844615432744</v>
+        <v>0.04541098483837128</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -920,19 +920,19 @@
         <v>10710</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5864</v>
+        <v>5193</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>19104</v>
+        <v>19295</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0168531793283156</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009227667161744802</v>
+        <v>0.008171714640951237</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0300612472937356</v>
+        <v>0.03036157926572677</v>
       </c>
     </row>
     <row r="7">
@@ -949,19 +949,19 @@
         <v>289879</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>284184</v>
+        <v>285276</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>291766</v>
+        <v>291786</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9907587165835336</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9712944599798454</v>
+        <v>0.9750260729241678</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9972087950426887</v>
+        <v>0.9972755712321476</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>359</v>
@@ -970,19 +970,19 @@
         <v>331369</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>323809</v>
+        <v>324090</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>336560</v>
+        <v>336301</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9662775203443402</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9442324272571946</v>
+        <v>0.945051319230889</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9814138870497806</v>
+        <v>0.9806573458098434</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>659</v>
@@ -991,19 +991,19 @@
         <v>621249</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>612451</v>
+        <v>611690</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>627238</v>
+        <v>627730</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9775483153871652</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9637054520289791</v>
+        <v>0.9625071882081543</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9869728235255066</v>
+        <v>0.9877467256065462</v>
       </c>
     </row>
     <row r="8">
@@ -1108,19 +1108,19 @@
         <v>3440</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9397</v>
+        <v>9127</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01030233793310673</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.003293676156871404</v>
+        <v>0.003282617397024728</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02814335396963506</v>
+        <v>0.02733455890211564</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1129,19 +1129,19 @@
         <v>3440</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9643</v>
+        <v>10320</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.006326020440008028</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.002010310281634418</v>
+        <v>0.002017863564768677</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0177325305323664</v>
+        <v>0.01897857603753851</v>
       </c>
     </row>
     <row r="10">
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5957</v>
+        <v>5899</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008093649303463351</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02838252197959829</v>
+        <v>0.02810711367230945</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1179,19 +1179,19 @@
         <v>3509</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1114</v>
+        <v>1129</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9324</v>
+        <v>10501</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01050801443585743</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003337567992819498</v>
+        <v>0.00338230758524085</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02792264393971666</v>
+        <v>0.03144838041212285</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1200,19 +1200,19 @@
         <v>5207</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1229</v>
+        <v>1957</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11526</v>
+        <v>10878</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009576159708027601</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002260281180767102</v>
+        <v>0.003599019257115795</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02119571714736825</v>
+        <v>0.02000368382645688</v>
       </c>
     </row>
     <row r="11">
@@ -1229,19 +1229,19 @@
         <v>7494</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2931</v>
+        <v>3733</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14602</v>
+        <v>14884</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03570346974528161</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01396507755669035</v>
+        <v>0.01778506437997846</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06957343263524453</v>
+        <v>0.07091548474625536</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -1250,19 +1250,19 @@
         <v>15270</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8252</v>
+        <v>8519</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24819</v>
+        <v>25142</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04573021615001231</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02471260581030425</v>
+        <v>0.02551268929742507</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07432763784115788</v>
+        <v>0.07529556376837296</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>21</v>
@@ -1271,19 +1271,19 @@
         <v>22763</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>14368</v>
+        <v>14911</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>34533</v>
+        <v>33831</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04186026668932982</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02642178061069872</v>
+        <v>0.02742123939463723</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06350505672338938</v>
+        <v>0.06221329137916303</v>
       </c>
     </row>
     <row r="12">
@@ -1300,19 +1300,19 @@
         <v>200691</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>193156</v>
+        <v>192838</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>205450</v>
+        <v>205164</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9562028809512551</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9203008454685079</v>
+        <v>0.9187864392446</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9788796157269561</v>
+        <v>0.9775174005223537</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>270</v>
@@ -1321,19 +1321,19 @@
         <v>311690</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>301169</v>
+        <v>300388</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>320641</v>
+        <v>319988</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9334594314810235</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9019534259696683</v>
+        <v>0.8996145237483696</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9602660450398167</v>
+        <v>0.9583122153362237</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>480</v>
@@ -1342,19 +1342,19 @@
         <v>512380</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>500129</v>
+        <v>499491</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>522743</v>
+        <v>521911</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9422375531626346</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9197088136770547</v>
+        <v>0.9185341288049375</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9612938462335178</v>
+        <v>0.9597640042573971</v>
       </c>
     </row>
     <row r="13">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4695</v>
+        <v>4237</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001668579154169476</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.009344603514075659</v>
+        <v>0.008432470631009444</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -1467,19 +1467,19 @@
         <v>4337</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1129</v>
+        <v>1141</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9957</v>
+        <v>10075</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006407026651411883</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001668622853569762</v>
+        <v>0.001685823224902118</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01471044688942647</v>
+        <v>0.01488490825659916</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -1488,19 +1488,19 @@
         <v>5175</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11371</v>
+        <v>11760</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004388123380015286</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001689089994425212</v>
+        <v>0.001692390995744189</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009642326079977693</v>
+        <v>0.009971851427789231</v>
       </c>
     </row>
     <row r="15">
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5877</v>
+        <v>5905</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.003380765256974488</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01169624946007014</v>
+        <v>0.01175291779758217</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>5</v>
@@ -1538,19 +1538,19 @@
         <v>5332</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2032</v>
+        <v>2023</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>12684</v>
+        <v>11392</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.007877377073954089</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.003001841322855569</v>
+        <v>0.002989090486654244</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.0187398506545706</v>
+        <v>0.01683048000416131</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>7</v>
@@ -1559,19 +1559,19 @@
         <v>7030</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2445</v>
+        <v>2934</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>13324</v>
+        <v>13642</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.005961512370845342</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.002073052520178705</v>
+        <v>0.00248796111468254</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01129834850322527</v>
+        <v>0.01156779354078522</v>
       </c>
     </row>
     <row r="16">
@@ -1588,19 +1588,19 @@
         <v>9359</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4506</v>
+        <v>4855</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16799</v>
+        <v>16290</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01862611624121252</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008968418596493442</v>
+        <v>0.009662428793049242</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03343407039251179</v>
+        <v>0.03242030084849307</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -1609,19 +1609,19 @@
         <v>24115</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15575</v>
+        <v>16660</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36953</v>
+        <v>37971</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03562829941696736</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02301165814437675</v>
+        <v>0.0246138834056394</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05459691560955719</v>
+        <v>0.05610035005067113</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -1630,19 +1630,19 @@
         <v>33474</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22832</v>
+        <v>22421</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46121</v>
+        <v>45874</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02838420454108409</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01936043616511618</v>
+        <v>0.01901213776249104</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03910836202986209</v>
+        <v>0.038898977451055</v>
       </c>
     </row>
     <row r="17">
@@ -1659,19 +1659,19 @@
         <v>490570</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>481229</v>
+        <v>482300</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>495686</v>
+        <v>495536</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9763245393476435</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9577343983718604</v>
+        <v>0.9598663856128822</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9865065296879423</v>
+        <v>0.9862081256911133</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>629</v>
@@ -1680,19 +1680,19 @@
         <v>643059</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>629130</v>
+        <v>630344</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>652924</v>
+        <v>652980</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9500872968576667</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9295083745422777</v>
+        <v>0.9313019562616337</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9646623070047892</v>
+        <v>0.9647453434557319</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1139</v>
@@ -1701,19 +1701,19 @@
         <v>1133629</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1117859</v>
+        <v>1118670</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1146286</v>
+        <v>1145320</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9612661597080553</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9478936263779182</v>
+        <v>0.9485816744486584</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.971999235112153</v>
+        <v>0.9711793290025968</v>
       </c>
     </row>
     <row r="18">
@@ -2043,19 +2043,19 @@
         <v>4086</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9941</v>
+        <v>9690</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01318985622719247</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003258171717456619</v>
+        <v>0.003238270402913284</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0320896297231205</v>
+        <v>0.03127892937218052</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4987</v>
+        <v>5600</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002823255245240717</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01408760656472739</v>
+        <v>0.01581999654441849</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -2085,19 +2085,19 @@
         <v>5085</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1988</v>
+        <v>1996</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11212</v>
+        <v>12235</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007661332896736297</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002995464122413151</v>
+        <v>0.003007557119452726</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01689071658027093</v>
+        <v>0.01843233202972414</v>
       </c>
     </row>
     <row r="5">
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5264</v>
+        <v>5969</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.002812280689987336</v>
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01487078983053309</v>
+        <v>0.01686232961834633</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5601</v>
+        <v>6287</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001499793368477769</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.008437907569987829</v>
+        <v>0.009471038561740279</v>
       </c>
     </row>
     <row r="6">
@@ -2177,19 +2177,19 @@
         <v>4165</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1025</v>
+        <v>1088</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9690</v>
+        <v>10420</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01344422990729429</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.003307750234022076</v>
+        <v>0.003510662144302207</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03127815187572565</v>
+        <v>0.03363593453934349</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -2198,19 +2198,19 @@
         <v>8632</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3869</v>
+        <v>3930</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16509</v>
+        <v>17144</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02438519090489903</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01093069095454245</v>
+        <v>0.01110110536908308</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04663722179536115</v>
+        <v>0.04843035222554612</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -2219,19 +2219,19 @@
         <v>12797</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6345</v>
+        <v>7651</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21490</v>
+        <v>23195</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01927906026665483</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009558518670669008</v>
+        <v>0.01152563895321345</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03237549317717858</v>
+        <v>0.03494367878934444</v>
       </c>
     </row>
     <row r="7">
@@ -2248,19 +2248,19 @@
         <v>301535</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>294455</v>
+        <v>294330</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>305844</v>
+        <v>305697</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9733659138655132</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9505118033695201</v>
+        <v>0.950107023468763</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9872764271624584</v>
+        <v>0.9868021631693783</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>334</v>
@@ -2269,19 +2269,19 @@
         <v>343369</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>335002</v>
+        <v>334772</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>349059</v>
+        <v>348440</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9699792731598729</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9463450010148784</v>
+        <v>0.9456956815228973</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9860540967284207</v>
+        <v>0.9843054260086683</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>608</v>
@@ -2290,19 +2290,19 @@
         <v>644904</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>634557</v>
+        <v>633781</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>652409</v>
+        <v>651730</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9715598134681311</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9559725097697019</v>
+        <v>0.9548032696467417</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9828664746902024</v>
+        <v>0.9818438376233785</v>
       </c>
     </row>
     <row r="8">
@@ -2394,19 +2394,19 @@
         <v>3162</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1020</v>
+        <v>1028</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9520</v>
+        <v>8494</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01265743824656067</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.004080727284162016</v>
+        <v>0.004114091629124505</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03810390264303035</v>
+        <v>0.0339967886357293</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>12</v>
@@ -2415,19 +2415,19 @@
         <v>13547</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7033</v>
+        <v>7188</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23103</v>
+        <v>23029</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03482587782798997</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01808052167859702</v>
+        <v>0.01847793983701093</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05939368497218991</v>
+        <v>0.05920393466794433</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>15</v>
@@ -2436,19 +2436,19 @@
         <v>16709</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10185</v>
+        <v>9758</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>26816</v>
+        <v>26743</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02615564499594999</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01594389376435372</v>
+        <v>0.01527492063357912</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04197637742460316</v>
+        <v>0.04186228685215387</v>
       </c>
     </row>
     <row r="10">
@@ -2465,19 +2465,19 @@
         <v>4353</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1049</v>
+        <v>1033</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13980</v>
+        <v>12080</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01742155869504545</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004197992274073623</v>
+        <v>0.004133589391117836</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05595134728993403</v>
+        <v>0.04834830767615734</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -2486,19 +2486,19 @@
         <v>13028</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6595</v>
+        <v>7600</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23618</v>
+        <v>24114</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0334924964808803</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01695588662871359</v>
+        <v>0.01953838793884528</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06071843936497299</v>
+        <v>0.0619934970710244</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -2507,19 +2507,19 @@
         <v>17381</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9759</v>
+        <v>9849</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29008</v>
+        <v>29280</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02720703954014268</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0152767740044702</v>
+        <v>0.01541700155416719</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04540765927659034</v>
+        <v>0.04583332064594724</v>
       </c>
     </row>
     <row r="11">
@@ -2536,19 +2536,19 @@
         <v>10702</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5296</v>
+        <v>5225</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20185</v>
+        <v>18627</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04283161843641774</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02119606197712492</v>
+        <v>0.02091202859489226</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08078728773517815</v>
+        <v>0.07455109786803008</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -2557,19 +2557,19 @@
         <v>28373</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18479</v>
+        <v>18788</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40135</v>
+        <v>41163</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07294144806354225</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04750541293065965</v>
+        <v>0.0483004000732632</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1031805149859343</v>
+        <v>0.1058231714057706</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>36</v>
@@ -2578,19 +2578,19 @@
         <v>39074</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>27547</v>
+        <v>28939</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>51237</v>
+        <v>53544</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06116528166079206</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04312051005121911</v>
+        <v>0.04530026200638337</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08020399227742905</v>
+        <v>0.0838161307768987</v>
       </c>
     </row>
     <row r="12">
@@ -2607,19 +2607,19 @@
         <v>231634</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>220230</v>
+        <v>220289</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>238895</v>
+        <v>239070</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9270893846219761</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8814445147868646</v>
+        <v>0.8816828353173611</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9561504160952313</v>
+        <v>0.9568502129386124</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>301</v>
@@ -2628,19 +2628,19 @@
         <v>334032</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>317412</v>
+        <v>316940</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>347823</v>
+        <v>346104</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8587401776275875</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8160123042659547</v>
+        <v>0.8148007302014429</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8941950026720913</v>
+        <v>0.889774908701878</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>507</v>
@@ -2649,19 +2649,19 @@
         <v>565666</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>545341</v>
+        <v>546750</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>580712</v>
+        <v>581392</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8854720338031152</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8536554657158985</v>
+        <v>0.855860716260467</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9090240643741812</v>
+        <v>0.9100883370553008</v>
       </c>
     </row>
     <row r="13">
@@ -2753,19 +2753,19 @@
         <v>7249</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3056</v>
+        <v>3102</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13613</v>
+        <v>13701</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01295215736473482</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005459942879055296</v>
+        <v>0.005542209316306538</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02432489999664739</v>
+        <v>0.02448245978475737</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -2774,19 +2774,19 @@
         <v>14546</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7911</v>
+        <v>8001</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23625</v>
+        <v>24326</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01957798869993289</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01064808272726705</v>
+        <v>0.0107685815226197</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03179725796568014</v>
+        <v>0.03274068024736009</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>20</v>
@@ -2795,19 +2795,19 @@
         <v>21794</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13971</v>
+        <v>14171</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34176</v>
+        <v>32616</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01673135400526041</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01072499060751303</v>
+        <v>0.01087881628067101</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02623681869041643</v>
+        <v>0.02503883740643558</v>
       </c>
     </row>
     <row r="15">
@@ -2824,19 +2824,19 @@
         <v>4353</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13081</v>
+        <v>13226</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.007777882856505802</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.001855157322663692</v>
+        <v>0.001848024560781674</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02337347154135096</v>
+        <v>0.02363329329950233</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>12</v>
@@ -2845,19 +2845,19 @@
         <v>14023</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7470</v>
+        <v>7458</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>23995</v>
+        <v>23555</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01887467796945085</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01005452335678054</v>
+        <v>0.01003738797245904</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03229588223635121</v>
+        <v>0.03170385414358924</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>15</v>
@@ -2866,19 +2866,19 @@
         <v>18376</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>10831</v>
+        <v>9719</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>30058</v>
+        <v>29712</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01410719742699042</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.008314523210005052</v>
+        <v>0.00746142072434081</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02307500119847972</v>
+        <v>0.02280941263137068</v>
       </c>
     </row>
     <row r="16">
@@ -2895,19 +2895,19 @@
         <v>14866</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8450</v>
+        <v>8357</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24359</v>
+        <v>25706</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02656427670902785</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01509991251247086</v>
+        <v>0.01493308215868145</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04352664901295304</v>
+        <v>0.04593339760845548</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -2916,19 +2916,19 @@
         <v>37005</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26302</v>
+        <v>25931</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51108</v>
+        <v>49849</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04980645580739147</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03540031055609286</v>
+        <v>0.03490127376150153</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06878806652361345</v>
+        <v>0.06709345618697879</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>48</v>
@@ -2937,19 +2937,19 @@
         <v>51871</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>38336</v>
+        <v>39040</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>67951</v>
+        <v>66716</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03982099284371408</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02942978810324765</v>
+        <v>0.0299702749198102</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05216544722743355</v>
+        <v>0.05121707626289786</v>
       </c>
     </row>
     <row r="17">
@@ -2966,19 +2966,19 @@
         <v>533169</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>521035</v>
+        <v>520565</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>542009</v>
+        <v>541850</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9527056830697316</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9310239410673773</v>
+        <v>0.9301838783279787</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9685014716999826</v>
+        <v>0.9682166446711699</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>635</v>
@@ -2987,19 +2987,19 @@
         <v>677401</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>659683</v>
+        <v>661364</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>692946</v>
+        <v>692557</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9117408775232247</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8878945611598312</v>
+        <v>0.8901563273364567</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9326632911350197</v>
+        <v>0.9321399935789141</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1115</v>
@@ -3008,19 +3008,19 @@
         <v>1210570</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1190651</v>
+        <v>1192444</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1228792</v>
+        <v>1228512</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9293404557240351</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9140491976453448</v>
+        <v>0.9154254175152896</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9433290030698179</v>
+        <v>0.9431143432013654</v>
       </c>
     </row>
     <row r="18">
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5006</v>
+        <v>5848</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002986971061604485</v>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01497447338367714</v>
+        <v>0.01749031668846414</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5425</v>
+        <v>5809</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.002564493304704332</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01436014547437124</v>
+        <v>0.01537636198103037</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6005</v>
+        <v>5939</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.002762848275318255</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.008432843927464443</v>
+        <v>0.008339783950447693</v>
       </c>
     </row>
     <row r="6">
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7880</v>
+        <v>8809</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.004702618135463839</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02357061934919562</v>
+        <v>0.02634683146527542</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -3489,19 +3489,19 @@
         <v>5144</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2018</v>
+        <v>1997</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11460</v>
+        <v>11425</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01361783460312856</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.005341287346112651</v>
+        <v>0.005285966520706739</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03033582718465024</v>
+        <v>0.03024523210380171</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -3510,19 +3510,19 @@
         <v>6717</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3039</v>
+        <v>2224</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15177</v>
+        <v>14003</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.009432105362764478</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004267055024587323</v>
+        <v>0.003122843837512705</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02131295530311032</v>
+        <v>0.01966525044726718</v>
       </c>
     </row>
     <row r="7">
@@ -3539,7 +3539,7 @@
         <v>331759</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>325537</v>
+        <v>325101</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>334330</v>
@@ -3548,7 +3548,7 @@
         <v>0.9923104108029317</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9736983680810407</v>
+        <v>0.9723963836843061</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -3560,19 +3560,19 @@
         <v>371649</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>365263</v>
+        <v>365262</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>374817</v>
+        <v>375699</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9838176720921671</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9669141620850307</v>
+        <v>0.9669102052007299</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9922036107597302</v>
+        <v>0.9945400428752151</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>671</v>
@@ -3581,19 +3581,19 @@
         <v>703408</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>694987</v>
+        <v>695470</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>708014</v>
+        <v>708123</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9878050463619172</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9759790905500663</v>
+        <v>0.9766580653095893</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9942726488247577</v>
+        <v>0.9944256251290474</v>
       </c>
     </row>
     <row r="8">
@@ -3688,16 +3688,16 @@
         <v>881</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7713</v>
+        <v>7238</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01049197338624112</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.003427512414575485</v>
+        <v>0.003427325383858898</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0300138045096255</v>
+        <v>0.02816381324357671</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -3706,19 +3706,19 @@
         <v>9535</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4447</v>
+        <v>3853</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>19261</v>
+        <v>18593</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02382841509519121</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01111287383110472</v>
+        <v>0.009628727125554092</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04813144571273605</v>
+        <v>0.04646283485875939</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>10</v>
@@ -3727,19 +3727,19 @@
         <v>12232</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6293</v>
+        <v>6033</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>22040</v>
+        <v>21842</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01861293887995959</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.009576447745812332</v>
+        <v>0.009179618984398645</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03353779669517454</v>
+        <v>0.03323688968411279</v>
       </c>
     </row>
     <row r="10">
@@ -3756,19 +3756,19 @@
         <v>5917</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11306</v>
+        <v>11259</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0230218597470378</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00980557142560962</v>
+        <v>0.009802341800219475</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04399208498286097</v>
+        <v>0.0438080749206987</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -3777,19 +3777,19 @@
         <v>3654</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9827</v>
+        <v>9838</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009130582001292187</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002946707294854704</v>
+        <v>0.002940186837938351</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02455702057257058</v>
+        <v>0.02458468400949297</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -3798,19 +3798,19 @@
         <v>9570</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4426</v>
+        <v>5032</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16991</v>
+        <v>17627</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01456303769398955</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006735632902352355</v>
+        <v>0.007657273654109428</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02585440867317554</v>
+        <v>0.02682245368838453</v>
       </c>
     </row>
     <row r="11">
@@ -3827,19 +3827,19 @@
         <v>8638</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4570</v>
+        <v>4760</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15750</v>
+        <v>15548</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03361201476387689</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01778096654054895</v>
+        <v>0.01852010997709157</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06128386388218487</v>
+        <v>0.06050042720764958</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -3848,19 +3848,19 @@
         <v>27136</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16917</v>
+        <v>17965</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>39364</v>
+        <v>40520</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06781092214787474</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04227409157250742</v>
+        <v>0.0448943371877682</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09836867263228823</v>
+        <v>0.1012570307464966</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>31</v>
@@ -3869,19 +3869,19 @@
         <v>35774</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>24990</v>
+        <v>24341</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>49402</v>
+        <v>49126</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05443677093567772</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03802716214353117</v>
+        <v>0.03703875105514556</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07517344768776042</v>
+        <v>0.07475368243926588</v>
       </c>
     </row>
     <row r="12">
@@ -3898,19 +3898,19 @@
         <v>239747</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>230304</v>
+        <v>230187</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>245543</v>
+        <v>245305</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9328741521028442</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8961322573602285</v>
+        <v>0.8956753527257273</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9554266283798998</v>
+        <v>0.9545020266481451</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>270</v>
@@ -3919,19 +3919,19 @@
         <v>359844</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>343804</v>
+        <v>343994</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>370947</v>
+        <v>372175</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8992300807556419</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8591478147319367</v>
+        <v>0.8596208164494865</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9269767345252109</v>
+        <v>0.9300445738861524</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>552</v>
@@ -3940,19 +3940,19 @@
         <v>599591</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>581358</v>
+        <v>584989</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>613387</v>
+        <v>613559</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9123872524903731</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.884642585030182</v>
+        <v>0.8901686683725407</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9333803251455887</v>
+        <v>0.9336422515670262</v>
       </c>
     </row>
     <row r="13">
@@ -4044,19 +4044,19 @@
         <v>2696</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7315</v>
+        <v>7194</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004559933221110048</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001501138794234005</v>
+        <v>0.001505000536003115</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01237109099482628</v>
+        <v>0.01216575661253567</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -4065,19 +4065,19 @@
         <v>9535</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3792</v>
+        <v>3820</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18961</v>
+        <v>18432</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01225737631779873</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004874687849334153</v>
+        <v>0.004911033130764361</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02437403184382414</v>
+        <v>0.02369368180412677</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -4086,19 +4086,19 @@
         <v>12232</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5887</v>
+        <v>5871</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>21889</v>
+        <v>21042</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008933159625005155</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004299492208038225</v>
+        <v>0.004287464916410565</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01598634462095299</v>
+        <v>0.01536762345706017</v>
       </c>
     </row>
     <row r="15">
@@ -4115,19 +4115,19 @@
         <v>6915</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3348</v>
+        <v>3382</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13934</v>
+        <v>13187</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01169436586092348</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.005661516940281761</v>
+        <v>0.005718775395997295</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02356462775475779</v>
+        <v>0.02229989872913645</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -4136,19 +4136,19 @@
         <v>4623</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1200</v>
+        <v>1230</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11520</v>
+        <v>11067</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.005942100240314753</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.001542975916832179</v>
+        <v>0.001581231292109287</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.0148087663937906</v>
+        <v>0.01422614973314902</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>12</v>
@@ -4157,19 +4157,19 @@
         <v>11538</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>6206</v>
+        <v>6451</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>20200</v>
+        <v>19722</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.008426272861952707</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.004532490007872514</v>
+        <v>0.004711121135374276</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01475244449700017</v>
+        <v>0.01440331987214688</v>
       </c>
     </row>
     <row r="16">
@@ -4186,19 +4186,19 @@
         <v>10210</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5261</v>
+        <v>5230</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18103</v>
+        <v>18050</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01726697693006572</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008896234329207433</v>
+        <v>0.008844077248536149</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03061389740223028</v>
+        <v>0.03052483734291439</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -4207,19 +4207,19 @@
         <v>32280</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20204</v>
+        <v>21372</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>44555</v>
+        <v>47754</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04149484888232918</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02597193313208631</v>
+        <v>0.02747327512817228</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05727400950012623</v>
+        <v>0.06138550011110823</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>37</v>
@@ -4228,19 +4228,19 @@
         <v>42491</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30769</v>
+        <v>30581</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58206</v>
+        <v>58794</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03103180350960978</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02247104671473039</v>
+        <v>0.02233402627508918</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04250939526375974</v>
+        <v>0.04293854808057089</v>
       </c>
     </row>
     <row r="17">
@@ -4257,19 +4257,19 @@
         <v>571506</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>561227</v>
+        <v>561678</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>578752</v>
+        <v>578810</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9664787239879008</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9490960542616396</v>
+        <v>0.9498580257438826</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9787323135883803</v>
+        <v>0.9788306369316603</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>618</v>
@@ -4278,19 +4278,19 @@
         <v>731493</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>717683</v>
+        <v>713987</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>745472</v>
+        <v>744826</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9403056745595574</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9225536322148494</v>
+        <v>0.9178022200908545</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9582756033592416</v>
+        <v>0.9574443174385961</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1223</v>
@@ -4299,19 +4299,19 @@
         <v>1302999</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1284761</v>
+        <v>1285667</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1318883</v>
+        <v>1318480</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9516087640034323</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9382889025375892</v>
+        <v>0.9389512079832389</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9632093116541243</v>
+        <v>0.9629149706512818</v>
       </c>
     </row>
     <row r="18">
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3410</v>
+        <v>3872</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002282794435463605</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.007773303860541378</v>
+        <v>0.008825426881444014</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3537</v>
+        <v>3353</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001184114251388277</v>
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.004181867196912569</v>
+        <v>0.003963658416216848</v>
       </c>
     </row>
     <row r="5">
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4046</v>
+        <v>3785</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.001612338848637478</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.009938466750549825</v>
+        <v>0.009298329089205309</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3931</v>
+        <v>5103</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.002931540845201727</v>
@@ -4737,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.008959212784896165</v>
+        <v>0.01163121000543228</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -4746,19 +4746,19 @@
         <v>1943</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5792</v>
+        <v>5860</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.002296625554581878</v>
+        <v>0.002296625554581879</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0007202044989852339</v>
+        <v>0.000722533250915535</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.006847524742926456</v>
+        <v>0.006928035700389812</v>
       </c>
     </row>
     <row r="6">
@@ -4775,19 +4775,19 @@
         <v>2185</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5920</v>
+        <v>6441</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.005368587892056503</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001485927478100255</v>
+        <v>0.001504488026967772</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01454256789728729</v>
+        <v>0.01582337210811912</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -4796,19 +4796,19 @@
         <v>8425</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4911</v>
+        <v>5017</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13323</v>
+        <v>13457</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01920406057407448</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01119270912432585</v>
+        <v>0.01143627272707273</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03036631447557296</v>
+        <v>0.03067274944215431</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>18</v>
@@ -4817,19 +4817,19 @@
         <v>10611</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6051</v>
+        <v>6346</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>16594</v>
+        <v>16151</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01254522198707678</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007154579938186918</v>
+        <v>0.007503401584847173</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0196186443555245</v>
+        <v>0.01909536083710571</v>
       </c>
     </row>
     <row r="7">
@@ -4846,19 +4846,19 @@
         <v>404238</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>400088</v>
+        <v>399383</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>406430</v>
+        <v>406413</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9930190732593059</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9828248641958564</v>
+        <v>0.9810912278003312</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9984025986203071</v>
+        <v>0.9983626565425732</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>807</v>
@@ -4867,19 +4867,19 @@
         <v>428021</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>422937</v>
+        <v>422039</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>432160</v>
+        <v>431951</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9755816041452602</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.963993080865856</v>
+        <v>0.9619466935864542</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9850166552348696</v>
+        <v>0.9845393663959994</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1373</v>
@@ -4888,19 +4888,19 @@
         <v>832259</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>825461</v>
+        <v>826026</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>837306</v>
+        <v>837034</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9839740382069531</v>
+        <v>0.9839740382069532</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9759372119590823</v>
+        <v>0.9766050286579958</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9899412006471441</v>
+        <v>0.9896196755397603</v>
       </c>
     </row>
     <row r="8">
@@ -4992,19 +4992,19 @@
         <v>2113</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>825</v>
+        <v>688</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4719</v>
+        <v>4993</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.006843817197051271</v>
+        <v>0.00684381719705127</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002670907276641974</v>
+        <v>0.00222924448338318</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01528251652739564</v>
+        <v>0.01617008174311283</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>20</v>
@@ -5013,19 +5013,19 @@
         <v>10993</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6899</v>
+        <v>6487</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17379</v>
+        <v>16521</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02367874754970214</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01485917110595983</v>
+        <v>0.01397204354134047</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03743274220310673</v>
+        <v>0.03558452055214997</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>25</v>
@@ -5034,19 +5034,19 @@
         <v>13107</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8609</v>
+        <v>8539</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>19739</v>
+        <v>19224</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01695391404104495</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0111365303866918</v>
+        <v>0.01104557476144821</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02553375329892268</v>
+        <v>0.02486662717801498</v>
       </c>
     </row>
     <row r="10">
@@ -5063,19 +5063,19 @@
         <v>3178</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>929</v>
+        <v>948</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7834</v>
+        <v>8041</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01029073297398901</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003008045562128922</v>
+        <v>0.003070830654048926</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02536704275404889</v>
+        <v>0.02603891051329931</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -5084,19 +5084,19 @@
         <v>6902</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3980</v>
+        <v>3600</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12578</v>
+        <v>12090</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01486581140908323</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00857231475388627</v>
+        <v>0.007754547839083152</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02709279940730354</v>
+        <v>0.02604138259933131</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -5105,19 +5105,19 @@
         <v>10080</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6074</v>
+        <v>5867</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16610</v>
+        <v>15761</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01303826355942955</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007856806720352655</v>
+        <v>0.007588867802938302</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02148576520104346</v>
+        <v>0.02038788392701526</v>
       </c>
     </row>
     <row r="11">
@@ -5134,19 +5134,19 @@
         <v>11155</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6601</v>
+        <v>6753</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17910</v>
+        <v>18106</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.03612346275426632</v>
+        <v>0.03612346275426631</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02137573350847713</v>
+        <v>0.02186757628690153</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05799586462883107</v>
+        <v>0.05863268905606606</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>63</v>
@@ -5155,19 +5155,19 @@
         <v>32982</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>25353</v>
+        <v>24889</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>42503</v>
+        <v>41817</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07104231380763412</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05460832234367077</v>
+        <v>0.05361050705828568</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0915494575360854</v>
+        <v>0.09007163152063932</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>80</v>
@@ -5176,19 +5176,19 @@
         <v>44138</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>34581</v>
+        <v>35019</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>55075</v>
+        <v>54314</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.057093728649958</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04473118675476501</v>
+        <v>0.04529855363639276</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0712418835009975</v>
+        <v>0.07025777734348472</v>
       </c>
     </row>
     <row r="12">
@@ -5205,19 +5205,19 @@
         <v>292363</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>284923</v>
+        <v>284365</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>297930</v>
+        <v>297834</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9467419870746934</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9226475989660037</v>
+        <v>0.9208401638977755</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9647673162971796</v>
+        <v>0.9644583538333065</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>785</v>
@@ -5226,19 +5226,19 @@
         <v>413387</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>402192</v>
+        <v>402286</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>422355</v>
+        <v>423240</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8904131272335803</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8663004922329468</v>
+        <v>0.8665031085661138</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9097308762521464</v>
+        <v>0.9116369209416443</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1215</v>
@@ -5247,19 +5247,19 @@
         <v>705750</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>692021</v>
+        <v>693034</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>717247</v>
+        <v>716941</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.9129140937495676</v>
+        <v>0.9129140937495677</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.895154939352268</v>
+        <v>0.8964647548809865</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9277860892359219</v>
+        <v>0.927390252644265</v>
       </c>
     </row>
     <row r="13">
@@ -5351,19 +5351,19 @@
         <v>2113</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>686</v>
+        <v>821</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5188</v>
+        <v>5260</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002952184826033984</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0009587135806646965</v>
+        <v>0.001146600510015586</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.00724757311385981</v>
+        <v>0.007348087766104447</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -5372,19 +5372,19 @@
         <v>11995</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7719</v>
+        <v>7199</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18908</v>
+        <v>18405</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0132832230269884</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008547932533744753</v>
+        <v>0.007971943280452089</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02093917705470322</v>
+        <v>0.02038240027525154</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>27</v>
@@ -5393,19 +5393,19 @@
         <v>14108</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9334</v>
+        <v>9170</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>21168</v>
+        <v>21056</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.008714727516435632</v>
+        <v>0.008714727516435634</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005765594418820302</v>
+        <v>0.005664477396789305</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01307561756601816</v>
+        <v>0.01300624298936715</v>
       </c>
     </row>
     <row r="15">
@@ -5422,19 +5422,19 @@
         <v>3834</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8156</v>
+        <v>9141</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.005355896385832363</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.001833715567502352</v>
+        <v>0.001827608283277121</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01139241777483281</v>
+        <v>0.01276883864633741</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>14</v>
@@ -5443,19 +5443,19 @@
         <v>8188</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>4673</v>
+        <v>4509</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>13524</v>
+        <v>13232</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.009067378329466429</v>
+        <v>0.009067378329466427</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.005175017253210962</v>
+        <v>0.004993682762566608</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.0149764816755902</v>
+        <v>0.01465288393398393</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>19</v>
@@ -5464,19 +5464,19 @@
         <v>12022</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>7443</v>
+        <v>7525</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>19160</v>
+        <v>18137</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.0074261213456888</v>
+        <v>0.007426121345688801</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.004597810700363536</v>
+        <v>0.004648160188658488</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01183538283140471</v>
+        <v>0.01120322485115131</v>
       </c>
     </row>
     <row r="16">
@@ -5493,19 +5493,19 @@
         <v>13341</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8249</v>
+        <v>8284</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20718</v>
+        <v>20839</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.01863517177070092</v>
+        <v>0.01863517177070093</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01152324691380311</v>
+        <v>0.01157146143000975</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02894045913476982</v>
+        <v>0.02910931479109743</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>78</v>
@@ -5514,19 +5514,19 @@
         <v>41408</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33003</v>
+        <v>33006</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52130</v>
+        <v>52551</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04585596993097376</v>
+        <v>0.04585596993097375</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03654787313596549</v>
+        <v>0.03655177534022943</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05772943294421884</v>
+        <v>0.05819635079907467</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>98</v>
@@ -5535,19 +5535,19 @@
         <v>54749</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44494</v>
+        <v>45112</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>66492</v>
+        <v>66620</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03381864204873043</v>
+        <v>0.03381864204873044</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02748414691771065</v>
+        <v>0.02786573546363482</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04107236917008698</v>
+        <v>0.04115147136424552</v>
       </c>
     </row>
     <row r="17">
@@ -5564,19 +5564,19 @@
         <v>696602</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>687534</v>
+        <v>688406</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>702875</v>
+        <v>703003</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9730567470174328</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9603906164467436</v>
+        <v>0.9616080975651708</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9818191399979208</v>
+        <v>0.9819991493252164</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1592</v>
@@ -5585,19 +5585,19 @@
         <v>841408</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>828453</v>
+        <v>828870</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>851823</v>
+        <v>852695</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9317934287125714</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9174468410326845</v>
+        <v>0.9179092873211283</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9433280317767794</v>
+        <v>0.9442929806974099</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2588</v>
@@ -5606,19 +5606,19 @@
         <v>1538009</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1522726</v>
+        <v>1523478</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1550773</v>
+        <v>1549437</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9500405090891452</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9405999576597505</v>
+        <v>0.941064326054369</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9579248408502923</v>
+        <v>0.9570997723735772</v>
       </c>
     </row>
     <row r="18">
